--- a/projects/EcoFoci/skq21_12S/data/skq21_12S_faire.xlsx
+++ b/projects/EcoFoci/skq21_12S/data/skq21_12S_faire.xlsx
@@ -7989,8 +7989,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC4" t="n">
-        <v/>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
@@ -8673,8 +8675,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC5" t="n">
-        <v/>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
@@ -9357,8 +9361,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC6" t="n">
-        <v/>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
@@ -9861,7 +9867,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2021-11-10T02:43:21Z</t>
+          <t>2021-11-10T02:39:00Z</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -10033,7 +10039,7 @@
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>P508DT21H16M39S</t>
+          <t>P508DT21H21M</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -10041,8 +10047,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC7" t="n">
-        <v/>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
@@ -10523,7 +10531,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2021-11-10T02:43:21Z</t>
+          <t>2021-11-10T02:39:00Z</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -10695,7 +10703,7 @@
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>P508DT21H16M39S</t>
+          <t>P508DT21H21M</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -10703,8 +10711,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC8" t="n">
-        <v/>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
@@ -11185,7 +11195,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2021-11-10T02:43:21Z</t>
+          <t>2021-11-10T02:39:00Z</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -11357,7 +11367,7 @@
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>P508DT21H16M39S</t>
+          <t>P508DT21H21M</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -11365,8 +11375,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC9" t="n">
-        <v/>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
@@ -11847,7 +11859,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2021-11-10T04:54:19Z</t>
+          <t>2021-11-10T04:55:00Z</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -12019,7 +12031,7 @@
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>P516DT19H5M41S</t>
+          <t>P516DT19H5M</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -12027,8 +12039,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC10" t="n">
-        <v/>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
@@ -12509,7 +12523,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2021-11-10T04:54:19Z</t>
+          <t>2021-11-10T04:55:00Z</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -12681,7 +12695,7 @@
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>P516DT19H5M41S</t>
+          <t>P516DT19H5M</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -12689,8 +12703,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC11" t="n">
-        <v/>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
@@ -13171,7 +13187,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2021-11-10T04:54:19Z</t>
+          <t>2021-11-10T04:55:00Z</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -13343,7 +13359,7 @@
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>P516DT19H5M41S</t>
+          <t>P516DT19H5M</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -13351,8 +13367,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC12" t="n">
-        <v/>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
@@ -13833,7 +13851,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2021-11-10T07:21:59Z</t>
+          <t>2021-11-10T07:19:00Z</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -14005,7 +14023,7 @@
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>P508DT16H38M1S</t>
+          <t>P508DT16H41M</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -14013,8 +14031,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC13" t="n">
-        <v/>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
@@ -14495,7 +14515,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2021-11-10T07:21:59Z</t>
+          <t>2021-11-10T07:19:00Z</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -14667,7 +14687,7 @@
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>P508DT16H38M1S</t>
+          <t>P508DT16H41M</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -14675,8 +14695,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC14" t="n">
-        <v/>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
@@ -15157,7 +15179,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2021-11-10T07:21:59Z</t>
+          <t>2021-11-10T07:19:00Z</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -15329,7 +15351,7 @@
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>P508DT16H38M1S</t>
+          <t>P508DT16H41M</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
@@ -15337,8 +15359,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC15" t="n">
-        <v/>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD15" t="inlineStr">
         <is>
@@ -15819,7 +15843,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2021-11-10T10:27:49Z</t>
+          <t>2021-11-10T10:26:00Z</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -15991,7 +16015,7 @@
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>P516DT13H32M11S</t>
+          <t>P516DT13H34M</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
@@ -15999,8 +16023,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC16" t="n">
-        <v/>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
@@ -16481,7 +16507,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2021-11-10T10:27:49Z</t>
+          <t>2021-11-10T10:26:00Z</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -16653,7 +16679,7 @@
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>P516DT13H32M11S</t>
+          <t>P516DT13H34M</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -16661,8 +16687,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC17" t="n">
-        <v/>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
@@ -17143,7 +17171,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2021-11-10T10:27:49Z</t>
+          <t>2021-11-10T10:26:00Z</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -17315,7 +17343,7 @@
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>P516DT13H32M11S</t>
+          <t>P516DT13H34M</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -17323,8 +17351,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC18" t="n">
-        <v/>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
@@ -17805,7 +17835,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2021-11-10T12:13:45Z</t>
+          <t>2021-11-10T12:18:00Z</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -17977,7 +18007,7 @@
       </c>
       <c r="BA19" t="inlineStr">
         <is>
-          <t>P516DT11H46M15S</t>
+          <t>P516DT11H42M</t>
         </is>
       </c>
       <c r="BB19" t="inlineStr">
@@ -17985,8 +18015,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC19" t="n">
-        <v/>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD19" t="inlineStr">
         <is>
@@ -18467,7 +18499,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2021-11-10T12:13:45Z</t>
+          <t>2021-11-10T12:18:00Z</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -18639,7 +18671,7 @@
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>P516DT11H46M15S</t>
+          <t>P516DT11H42M</t>
         </is>
       </c>
       <c r="BB20" t="inlineStr">
@@ -18647,8 +18679,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC20" t="n">
-        <v/>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD20" t="inlineStr">
         <is>
@@ -19129,7 +19163,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2021-11-10T12:13:45Z</t>
+          <t>2021-11-10T12:18:00Z</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -19301,7 +19335,7 @@
       </c>
       <c r="BA21" t="inlineStr">
         <is>
-          <t>P516DT11H46M15S</t>
+          <t>P516DT11H42M</t>
         </is>
       </c>
       <c r="BB21" t="inlineStr">
@@ -19309,8 +19343,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC21" t="n">
-        <v/>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD21" t="inlineStr">
         <is>
@@ -19791,7 +19827,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2021-11-10T14:33:01Z</t>
+          <t>2021-11-10T14:34:00Z</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -19963,7 +19999,7 @@
       </c>
       <c r="BA22" t="inlineStr">
         <is>
-          <t>P508DT9H26M59S</t>
+          <t>P508DT9H26M</t>
         </is>
       </c>
       <c r="BB22" t="inlineStr">
@@ -19971,8 +20007,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC22" t="n">
-        <v/>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD22" t="inlineStr">
         <is>
@@ -20453,7 +20491,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2021-11-10T14:33:01Z</t>
+          <t>2021-11-10T14:34:00Z</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -20625,7 +20663,7 @@
       </c>
       <c r="BA23" t="inlineStr">
         <is>
-          <t>P508DT9H26M59S</t>
+          <t>P508DT9H26M</t>
         </is>
       </c>
       <c r="BB23" t="inlineStr">
@@ -20633,8 +20671,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC23" t="n">
-        <v/>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD23" t="inlineStr">
         <is>
@@ -21115,7 +21155,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2021-11-10T14:33:01Z</t>
+          <t>2021-11-10T14:34:00Z</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -21287,7 +21327,7 @@
       </c>
       <c r="BA24" t="inlineStr">
         <is>
-          <t>P508DT9H26M59S</t>
+          <t>P508DT9H26M</t>
         </is>
       </c>
       <c r="BB24" t="inlineStr">
@@ -21295,8 +21335,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC24" t="n">
-        <v/>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD24" t="inlineStr">
         <is>
@@ -21957,8 +21999,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC25" t="n">
-        <v/>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD25" t="inlineStr">
         <is>
@@ -22619,8 +22663,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC26" t="n">
-        <v/>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD26" t="inlineStr">
         <is>
@@ -23281,8 +23327,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC27" t="n">
-        <v/>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD27" t="inlineStr">
         <is>
@@ -23763,7 +23811,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2021-11-11T05:08:13Z</t>
+          <t>2021-11-11T05:10:00Z</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -23935,7 +23983,7 @@
       </c>
       <c r="BA28" t="inlineStr">
         <is>
-          <t>P509DT18H51M47S</t>
+          <t>P509DT18H50M</t>
         </is>
       </c>
       <c r="BB28" t="inlineStr">
@@ -23943,8 +23991,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC28" t="n">
-        <v/>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD28" t="inlineStr">
         <is>
@@ -24425,7 +24475,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2021-11-11T05:08:13Z</t>
+          <t>2021-11-11T05:10:00Z</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -24597,7 +24647,7 @@
       </c>
       <c r="BA29" t="inlineStr">
         <is>
-          <t>P509DT18H51M47S</t>
+          <t>P509DT18H50M</t>
         </is>
       </c>
       <c r="BB29" t="inlineStr">
@@ -24605,8 +24655,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC29" t="n">
-        <v/>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD29" t="inlineStr">
         <is>
@@ -25087,7 +25139,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2021-11-11T05:08:13Z</t>
+          <t>2021-11-11T05:10:00Z</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -25259,7 +25311,7 @@
       </c>
       <c r="BA30" t="inlineStr">
         <is>
-          <t>P509DT18H51M47S</t>
+          <t>P509DT18H50M</t>
         </is>
       </c>
       <c r="BB30" t="inlineStr">
@@ -25267,8 +25319,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC30" t="n">
-        <v/>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD30" t="inlineStr">
         <is>
@@ -25749,7 +25803,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2021-11-12T01:18:18Z</t>
+          <t>2021-11-12T01:21:00Z</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -25921,7 +25975,7 @@
       </c>
       <c r="BA31" t="inlineStr">
         <is>
-          <t>P508DT22H41M42S</t>
+          <t>P508DT22H39M</t>
         </is>
       </c>
       <c r="BB31" t="inlineStr">
@@ -25929,8 +25983,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC31" t="n">
-        <v/>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD31" t="inlineStr">
         <is>
@@ -26411,7 +26467,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2021-11-12T01:18:18Z</t>
+          <t>2021-11-12T01:21:00Z</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -26583,7 +26639,7 @@
       </c>
       <c r="BA32" t="inlineStr">
         <is>
-          <t>P508DT22H41M42S</t>
+          <t>P508DT22H39M</t>
         </is>
       </c>
       <c r="BB32" t="inlineStr">
@@ -26591,8 +26647,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC32" t="n">
-        <v/>
+      <c r="BC32" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD32" t="inlineStr">
         <is>
@@ -27073,7 +27131,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2021-11-12T03:14:11Z</t>
+          <t>2021-11-12T03:15:00Z</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -27245,7 +27303,7 @@
       </c>
       <c r="BA33" t="inlineStr">
         <is>
-          <t>P506DT20H45M49S</t>
+          <t>P506DT20H45M</t>
         </is>
       </c>
       <c r="BB33" t="inlineStr">
@@ -27253,8 +27311,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC33" t="n">
-        <v/>
+      <c r="BC33" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD33" t="inlineStr">
         <is>
@@ -27735,7 +27795,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2021-11-12T03:14:11Z</t>
+          <t>2021-11-12T03:15:00Z</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -27907,7 +27967,7 @@
       </c>
       <c r="BA34" t="inlineStr">
         <is>
-          <t>P506DT20H45M49S</t>
+          <t>P506DT20H45M</t>
         </is>
       </c>
       <c r="BB34" t="inlineStr">
@@ -27915,8 +27975,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC34" t="n">
-        <v/>
+      <c r="BC34" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD34" t="inlineStr">
         <is>
@@ -28397,7 +28459,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2021-11-12T03:14:11Z</t>
+          <t>2021-11-12T03:15:00Z</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -28569,7 +28631,7 @@
       </c>
       <c r="BA35" t="inlineStr">
         <is>
-          <t>P506DT20H45M49S</t>
+          <t>P506DT20H45M</t>
         </is>
       </c>
       <c r="BB35" t="inlineStr">
@@ -28577,8 +28639,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC35" t="n">
-        <v/>
+      <c r="BC35" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD35" t="inlineStr">
         <is>
@@ -29059,7 +29123,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2021-11-12T05:25:50Z</t>
+          <t>2021-11-12T05:26:00Z</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -29231,7 +29295,7 @@
       </c>
       <c r="BA36" t="inlineStr">
         <is>
-          <t>P508DT18H34M10S</t>
+          <t>P508DT18H34M</t>
         </is>
       </c>
       <c r="BB36" t="inlineStr">
@@ -29239,8 +29303,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC36" t="n">
-        <v/>
+      <c r="BC36" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD36" t="inlineStr">
         <is>
@@ -29721,7 +29787,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2021-11-12T05:25:50Z</t>
+          <t>2021-11-12T05:26:00Z</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -29893,7 +29959,7 @@
       </c>
       <c r="BA37" t="inlineStr">
         <is>
-          <t>P508DT18H34M10S</t>
+          <t>P508DT18H34M</t>
         </is>
       </c>
       <c r="BB37" t="inlineStr">
@@ -29901,8 +29967,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC37" t="n">
-        <v/>
+      <c r="BC37" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD37" t="inlineStr">
         <is>
@@ -30383,7 +30451,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2021-11-12T05:25:50Z</t>
+          <t>2021-11-12T05:26:00Z</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -30555,7 +30623,7 @@
       </c>
       <c r="BA38" t="inlineStr">
         <is>
-          <t>P508DT18H34M10S</t>
+          <t>P508DT18H34M</t>
         </is>
       </c>
       <c r="BB38" t="inlineStr">
@@ -30563,8 +30631,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC38" t="n">
-        <v/>
+      <c r="BC38" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD38" t="inlineStr">
         <is>
@@ -31045,7 +31115,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2021-11-12T07:05:36Z</t>
+          <t>2021-11-12T00:00:00Z</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -31217,7 +31287,7 @@
       </c>
       <c r="BA39" t="inlineStr">
         <is>
-          <t>P508DT16H54M24S</t>
+          <t>P509D</t>
         </is>
       </c>
       <c r="BB39" t="inlineStr">
@@ -31225,8 +31295,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC39" t="n">
-        <v/>
+      <c r="BC39" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD39" t="inlineStr">
         <is>
@@ -31707,7 +31779,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2021-11-12T07:05:36Z</t>
+          <t>2021-11-12T00:00:00Z</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -31879,7 +31951,7 @@
       </c>
       <c r="BA40" t="inlineStr">
         <is>
-          <t>P508DT16H54M24S</t>
+          <t>P509D</t>
         </is>
       </c>
       <c r="BB40" t="inlineStr">
@@ -31887,8 +31959,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC40" t="n">
-        <v/>
+      <c r="BC40" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD40" t="inlineStr">
         <is>
@@ -32369,7 +32443,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2021-11-12T07:05:36Z</t>
+          <t>2021-11-12T00:00:00Z</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -32541,7 +32615,7 @@
       </c>
       <c r="BA41" t="inlineStr">
         <is>
-          <t>P508DT16H54M24S</t>
+          <t>P509D</t>
         </is>
       </c>
       <c r="BB41" t="inlineStr">
@@ -32549,8 +32623,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC41" t="n">
-        <v/>
+      <c r="BC41" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD41" t="inlineStr">
         <is>
@@ -33031,7 +33107,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2021-11-12T09:39:57Z</t>
+          <t>2021-11-12T09:37:00Z</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -33203,7 +33279,7 @@
       </c>
       <c r="BA42" t="inlineStr">
         <is>
-          <t>P514DT14H20M3S</t>
+          <t>P514DT14H23M</t>
         </is>
       </c>
       <c r="BB42" t="inlineStr">
@@ -33211,8 +33287,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC42" t="n">
-        <v/>
+      <c r="BC42" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD42" t="inlineStr">
         <is>
@@ -33693,7 +33771,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2021-11-12T09:39:57Z</t>
+          <t>2021-11-12T09:37:00Z</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -33865,7 +33943,7 @@
       </c>
       <c r="BA43" t="inlineStr">
         <is>
-          <t>P514DT14H20M3S</t>
+          <t>P514DT14H23M</t>
         </is>
       </c>
       <c r="BB43" t="inlineStr">
@@ -33873,8 +33951,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC43" t="n">
-        <v/>
+      <c r="BC43" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD43" t="inlineStr">
         <is>
@@ -34355,7 +34435,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2021-11-12T09:39:57Z</t>
+          <t>2021-11-12T09:37:00Z</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -34527,7 +34607,7 @@
       </c>
       <c r="BA44" t="inlineStr">
         <is>
-          <t>P514DT14H20M3S</t>
+          <t>P514DT14H23M</t>
         </is>
       </c>
       <c r="BB44" t="inlineStr">
@@ -34535,8 +34615,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC44" t="n">
-        <v/>
+      <c r="BC44" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD44" t="inlineStr">
         <is>
@@ -35027,7 +35109,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2021-11-12T12:57:06Z</t>
+          <t>2021-11-12T12:56:00Z</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -35199,7 +35281,7 @@
       </c>
       <c r="BA45" t="inlineStr">
         <is>
-          <t>P514DT11H2M54S</t>
+          <t>P514DT11H4M</t>
         </is>
       </c>
       <c r="BB45" t="inlineStr">
@@ -35207,8 +35289,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC45" t="n">
-        <v/>
+      <c r="BC45" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD45" t="inlineStr">
         <is>
@@ -35689,7 +35773,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2021-11-12T12:57:06Z</t>
+          <t>2021-11-12T12:56:00Z</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -35861,7 +35945,7 @@
       </c>
       <c r="BA46" t="inlineStr">
         <is>
-          <t>P514DT11H2M54S</t>
+          <t>P514DT11H4M</t>
         </is>
       </c>
       <c r="BB46" t="inlineStr">
@@ -35869,8 +35953,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC46" t="n">
-        <v/>
+      <c r="BC46" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD46" t="inlineStr">
         <is>
@@ -36351,7 +36437,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2021-11-12T12:57:06Z</t>
+          <t>2021-11-12T12:56:00Z</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -36523,7 +36609,7 @@
       </c>
       <c r="BA47" t="inlineStr">
         <is>
-          <t>P514DT11H2M54S</t>
+          <t>P514DT11H4M</t>
         </is>
       </c>
       <c r="BB47" t="inlineStr">
@@ -36531,8 +36617,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC47" t="n">
-        <v/>
+      <c r="BC47" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD47" t="inlineStr">
         <is>
@@ -37013,7 +37101,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2021-11-12T15:38:01Z</t>
+          <t>2021-11-12T15:39:00Z</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -37185,7 +37273,7 @@
       </c>
       <c r="BA48" t="inlineStr">
         <is>
-          <t>P516DT8H21M59S</t>
+          <t>P516DT8H21M</t>
         </is>
       </c>
       <c r="BB48" t="inlineStr">
@@ -37193,8 +37281,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC48" t="n">
-        <v/>
+      <c r="BC48" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD48" t="inlineStr">
         <is>
@@ -37675,7 +37765,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2021-11-12T15:38:01Z</t>
+          <t>2021-11-12T15:39:00Z</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -37847,7 +37937,7 @@
       </c>
       <c r="BA49" t="inlineStr">
         <is>
-          <t>P516DT8H21M59S</t>
+          <t>P516DT8H21M</t>
         </is>
       </c>
       <c r="BB49" t="inlineStr">
@@ -37855,8 +37945,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC49" t="n">
-        <v/>
+      <c r="BC49" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD49" t="inlineStr">
         <is>
@@ -38337,7 +38429,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2021-11-12T15:38:01Z</t>
+          <t>2021-11-12T15:39:00Z</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -38509,7 +38601,7 @@
       </c>
       <c r="BA50" t="inlineStr">
         <is>
-          <t>P516DT8H21M59S</t>
+          <t>P516DT8H21M</t>
         </is>
       </c>
       <c r="BB50" t="inlineStr">
@@ -38517,8 +38609,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC50" t="n">
-        <v/>
+      <c r="BC50" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD50" t="inlineStr">
         <is>
@@ -38999,7 +39093,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2021-11-14T09:53:49Z</t>
+          <t>2021-11-14T09:51:00Z</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -39171,7 +39265,7 @@
       </c>
       <c r="BA51" t="inlineStr">
         <is>
-          <t>P514DT14H6M11S</t>
+          <t>P514DT14H9M</t>
         </is>
       </c>
       <c r="BB51" t="inlineStr">
@@ -39179,8 +39273,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC51" t="n">
-        <v/>
+      <c r="BC51" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD51" t="inlineStr">
         <is>
@@ -39671,7 +39767,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2021-11-14T09:53:49Z</t>
+          <t>2021-11-14T09:51:00Z</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -39843,7 +39939,7 @@
       </c>
       <c r="BA52" t="inlineStr">
         <is>
-          <t>P514DT14H6M11S</t>
+          <t>P514DT14H9M</t>
         </is>
       </c>
       <c r="BB52" t="inlineStr">
@@ -39851,8 +39947,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC52" t="n">
-        <v/>
+      <c r="BC52" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD52" t="inlineStr">
         <is>
@@ -40343,7 +40441,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2021-11-14T09:53:49Z</t>
+          <t>2021-11-14T09:51:00Z</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -40515,7 +40613,7 @@
       </c>
       <c r="BA53" t="inlineStr">
         <is>
-          <t>P514DT14H6M11S</t>
+          <t>P514DT14H9M</t>
         </is>
       </c>
       <c r="BB53" t="inlineStr">
@@ -40523,8 +40621,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC53" t="n">
-        <v/>
+      <c r="BC53" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD53" t="inlineStr">
         <is>
@@ -41005,7 +41105,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2021-11-14T12:08:40Z</t>
+          <t>2021-11-14T12:06:00Z</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -41177,7 +41277,7 @@
       </c>
       <c r="BA54" t="inlineStr">
         <is>
-          <t>P514DT11H51M20S</t>
+          <t>P514DT11H54M</t>
         </is>
       </c>
       <c r="BB54" t="inlineStr">
@@ -41185,8 +41285,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC54" t="n">
-        <v/>
+      <c r="BC54" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD54" t="inlineStr">
         <is>
@@ -41667,7 +41769,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2021-11-14T12:08:40Z</t>
+          <t>2021-11-14T12:06:00Z</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -41839,7 +41941,7 @@
       </c>
       <c r="BA55" t="inlineStr">
         <is>
-          <t>P514DT11H51M20S</t>
+          <t>P514DT11H54M</t>
         </is>
       </c>
       <c r="BB55" t="inlineStr">
@@ -41847,8 +41949,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC55" t="n">
-        <v/>
+      <c r="BC55" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD55" t="inlineStr">
         <is>
@@ -42339,7 +42443,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2021-11-14T12:08:40Z</t>
+          <t>2021-11-14T12:06:00Z</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -42511,7 +42615,7 @@
       </c>
       <c r="BA56" t="inlineStr">
         <is>
-          <t>P514DT11H51M20S</t>
+          <t>P514DT11H54M</t>
         </is>
       </c>
       <c r="BB56" t="inlineStr">
@@ -42519,8 +42623,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC56" t="n">
-        <v/>
+      <c r="BC56" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD56" t="inlineStr">
         <is>
@@ -43011,7 +43117,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2021-11-14T14:08:01Z</t>
+          <t>2021-11-14T14:06:00Z</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -43183,7 +43289,7 @@
       </c>
       <c r="BA57" t="inlineStr">
         <is>
-          <t>P514DT9H51M59S</t>
+          <t>P514DT9H54M</t>
         </is>
       </c>
       <c r="BB57" t="inlineStr">
@@ -43191,8 +43297,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC57" t="n">
-        <v/>
+      <c r="BC57" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD57" t="inlineStr">
         <is>
@@ -43673,7 +43781,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2021-11-14T14:08:01Z</t>
+          <t>2021-11-14T14:06:00Z</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -43845,7 +43953,7 @@
       </c>
       <c r="BA58" t="inlineStr">
         <is>
-          <t>P514DT9H51M59S</t>
+          <t>P514DT9H54M</t>
         </is>
       </c>
       <c r="BB58" t="inlineStr">
@@ -43853,8 +43961,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC58" t="n">
-        <v/>
+      <c r="BC58" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD58" t="inlineStr">
         <is>
@@ -44345,7 +44455,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2021-11-14T14:08:01Z</t>
+          <t>2021-11-14T14:06:00Z</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -44517,7 +44627,7 @@
       </c>
       <c r="BA59" t="inlineStr">
         <is>
-          <t>P514DT9H51M59S</t>
+          <t>P514DT9H54M</t>
         </is>
       </c>
       <c r="BB59" t="inlineStr">
@@ -44525,8 +44635,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC59" t="n">
-        <v/>
+      <c r="BC59" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD59" t="inlineStr">
         <is>
@@ -45007,7 +45119,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2021-11-14T17:01:40Z</t>
+          <t>2021-11-14T17:01:00Z</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -45179,7 +45291,7 @@
       </c>
       <c r="BA60" t="inlineStr">
         <is>
-          <t>P506DT6H58M20S</t>
+          <t>P506DT6H59M</t>
         </is>
       </c>
       <c r="BB60" t="inlineStr">
@@ -45187,8 +45299,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC60" t="n">
-        <v/>
+      <c r="BC60" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD60" t="inlineStr">
         <is>
@@ -45669,7 +45783,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2021-11-14T17:01:40Z</t>
+          <t>2021-11-14T17:01:00Z</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -45841,7 +45955,7 @@
       </c>
       <c r="BA61" t="inlineStr">
         <is>
-          <t>P506DT6H58M20S</t>
+          <t>P506DT6H59M</t>
         </is>
       </c>
       <c r="BB61" t="inlineStr">
@@ -45849,8 +45963,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC61" t="n">
-        <v/>
+      <c r="BC61" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD61" t="inlineStr">
         <is>
@@ -46331,7 +46447,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2021-11-14T17:01:40Z</t>
+          <t>2021-11-14T17:01:00Z</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -46503,7 +46619,7 @@
       </c>
       <c r="BA62" t="inlineStr">
         <is>
-          <t>P506DT6H58M20S</t>
+          <t>P506DT6H59M</t>
         </is>
       </c>
       <c r="BB62" t="inlineStr">
@@ -46511,8 +46627,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC62" t="n">
-        <v/>
+      <c r="BC62" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD62" t="inlineStr">
         <is>
@@ -46993,7 +47111,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2021-11-14T19:01:37Z</t>
+          <t>2021-11-14T18:58:00Z</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -47165,7 +47283,7 @@
       </c>
       <c r="BA63" t="inlineStr">
         <is>
-          <t>P506DT4H58M23S</t>
+          <t>P506DT5H2M</t>
         </is>
       </c>
       <c r="BB63" t="inlineStr">
@@ -47173,8 +47291,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC63" t="n">
-        <v/>
+      <c r="BC63" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD63" t="inlineStr">
         <is>
@@ -47655,7 +47775,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2021-11-14T19:01:37Z</t>
+          <t>2021-11-14T18:58:00Z</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -47827,7 +47947,7 @@
       </c>
       <c r="BA64" t="inlineStr">
         <is>
-          <t>P506DT4H58M23S</t>
+          <t>P506DT5H2M</t>
         </is>
       </c>
       <c r="BB64" t="inlineStr">
@@ -47835,8 +47955,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC64" t="n">
-        <v/>
+      <c r="BC64" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD64" t="inlineStr">
         <is>
@@ -48327,7 +48449,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2021-11-14T19:01:37Z</t>
+          <t>2021-11-14T18:58:00Z</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -48499,7 +48621,7 @@
       </c>
       <c r="BA65" t="inlineStr">
         <is>
-          <t>P506DT4H58M23S</t>
+          <t>P506DT5H2M</t>
         </is>
       </c>
       <c r="BB65" t="inlineStr">
@@ -48507,8 +48629,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC65" t="n">
-        <v/>
+      <c r="BC65" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD65" t="inlineStr">
         <is>
@@ -48989,7 +49113,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2021-11-14T22:16:55Z</t>
+          <t>2021-11-14T22:19:00Z</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -49161,7 +49285,7 @@
       </c>
       <c r="BA66" t="inlineStr">
         <is>
-          <t>P506DT1H43M5S</t>
+          <t>P506DT1H41M</t>
         </is>
       </c>
       <c r="BB66" t="inlineStr">
@@ -49169,8 +49293,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC66" t="n">
-        <v/>
+      <c r="BC66" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD66" t="inlineStr">
         <is>
@@ -49651,7 +49777,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2021-11-14T22:16:55Z</t>
+          <t>2021-11-14T22:19:00Z</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -49823,7 +49949,7 @@
       </c>
       <c r="BA67" t="inlineStr">
         <is>
-          <t>P506DT1H43M5S</t>
+          <t>P506DT1H41M</t>
         </is>
       </c>
       <c r="BB67" t="inlineStr">
@@ -49831,8 +49957,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC67" t="n">
-        <v/>
+      <c r="BC67" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD67" t="inlineStr">
         <is>
@@ -50313,7 +50441,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2021-11-14T22:16:55Z</t>
+          <t>2021-11-14T22:19:00Z</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -50485,7 +50613,7 @@
       </c>
       <c r="BA68" t="inlineStr">
         <is>
-          <t>P506DT1H43M5S</t>
+          <t>P506DT1H41M</t>
         </is>
       </c>
       <c r="BB68" t="inlineStr">
@@ -50493,8 +50621,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC68" t="n">
-        <v/>
+      <c r="BC68" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD68" t="inlineStr">
         <is>
@@ -50975,7 +51105,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2021-11-15T00:37:00Z</t>
+          <t>2021-11-15T00:00:00Z</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -51147,7 +51277,7 @@
       </c>
       <c r="BA69" t="inlineStr">
         <is>
-          <t>P511DT23H23M</t>
+          <t>P512D</t>
         </is>
       </c>
       <c r="BB69" t="inlineStr">
@@ -51155,8 +51285,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC69" t="n">
-        <v/>
+      <c r="BC69" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD69" t="inlineStr">
         <is>
@@ -51647,7 +51779,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2021-11-15T00:37:00Z</t>
+          <t>2021-11-15T00:00:00Z</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -51819,7 +51951,7 @@
       </c>
       <c r="BA70" t="inlineStr">
         <is>
-          <t>P511DT23H23M</t>
+          <t>P512D</t>
         </is>
       </c>
       <c r="BB70" t="inlineStr">
@@ -51827,8 +51959,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC70" t="n">
-        <v/>
+      <c r="BC70" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD70" t="inlineStr">
         <is>
@@ -52319,7 +52453,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2021-11-15T00:37:00Z</t>
+          <t>2021-11-15T00:00:00Z</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -52491,7 +52625,7 @@
       </c>
       <c r="BA71" t="inlineStr">
         <is>
-          <t>P511DT23H23M</t>
+          <t>P512D</t>
         </is>
       </c>
       <c r="BB71" t="inlineStr">
@@ -52499,8 +52633,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC71" t="n">
-        <v/>
+      <c r="BC71" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD71" t="inlineStr">
         <is>
@@ -52981,7 +53117,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2021-11-15T03:53:15Z</t>
+          <t>2021-11-15T03:51:00Z</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -53153,7 +53289,7 @@
       </c>
       <c r="BA72" t="inlineStr">
         <is>
-          <t>P511DT20H6M45S</t>
+          <t>P511DT20H9M</t>
         </is>
       </c>
       <c r="BB72" t="inlineStr">
@@ -53161,8 +53297,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC72" t="n">
-        <v/>
+      <c r="BC72" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD72" t="inlineStr">
         <is>
@@ -53653,7 +53791,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2021-11-15T03:53:15Z</t>
+          <t>2021-11-15T03:51:00Z</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -53825,7 +53963,7 @@
       </c>
       <c r="BA73" t="inlineStr">
         <is>
-          <t>P511DT20H6M45S</t>
+          <t>P511DT20H9M</t>
         </is>
       </c>
       <c r="BB73" t="inlineStr">
@@ -53833,8 +53971,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC73" t="n">
-        <v/>
+      <c r="BC73" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD73" t="inlineStr">
         <is>
@@ -54315,7 +54455,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2021-11-15T03:53:15Z</t>
+          <t>2021-11-15T03:51:00Z</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -54487,7 +54627,7 @@
       </c>
       <c r="BA74" t="inlineStr">
         <is>
-          <t>P511DT20H6M45S</t>
+          <t>P511DT20H9M</t>
         </is>
       </c>
       <c r="BB74" t="inlineStr">
@@ -54495,8 +54635,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC74" t="n">
-        <v/>
+      <c r="BC74" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD74" t="inlineStr">
         <is>
@@ -54987,7 +55129,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2021-11-15T05:52:47Z</t>
+          <t>2021-11-15T05:50:00Z</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -55159,7 +55301,7 @@
       </c>
       <c r="BA75" t="inlineStr">
         <is>
-          <t>P511DT18H7M13S</t>
+          <t>P511DT18H10M</t>
         </is>
       </c>
       <c r="BB75" t="inlineStr">
@@ -55167,8 +55309,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC75" t="n">
-        <v/>
+      <c r="BC75" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD75" t="inlineStr">
         <is>
@@ -55649,7 +55793,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2021-11-15T05:52:47Z</t>
+          <t>2021-11-15T05:50:00Z</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -55821,7 +55965,7 @@
       </c>
       <c r="BA76" t="inlineStr">
         <is>
-          <t>P511DT18H7M13S</t>
+          <t>P511DT18H10M</t>
         </is>
       </c>
       <c r="BB76" t="inlineStr">
@@ -55829,8 +55973,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC76" t="n">
-        <v/>
+      <c r="BC76" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD76" t="inlineStr">
         <is>
@@ -56321,7 +56467,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2021-11-15T05:52:47Z</t>
+          <t>2021-11-15T05:50:00Z</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -56493,7 +56639,7 @@
       </c>
       <c r="BA77" t="inlineStr">
         <is>
-          <t>P511DT18H7M13S</t>
+          <t>P511DT18H10M</t>
         </is>
       </c>
       <c r="BB77" t="inlineStr">
@@ -56501,8 +56647,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC77" t="n">
-        <v/>
+      <c r="BC77" t="inlineStr">
+        <is>
+          <t>2023-04-11T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD77" t="inlineStr">
         <is>
@@ -56983,7 +57131,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2021-11-15T09:34:19Z</t>
+          <t>2021-11-15T09:34:00Z</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -57155,7 +57303,7 @@
       </c>
       <c r="BA78" t="inlineStr">
         <is>
-          <t>P513DT14H25M41S</t>
+          <t>P513DT14H26M</t>
         </is>
       </c>
       <c r="BB78" t="inlineStr">
@@ -57163,8 +57311,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC78" t="n">
-        <v/>
+      <c r="BC78" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD78" t="inlineStr">
         <is>
@@ -57655,7 +57805,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2021-11-15T09:34:19Z</t>
+          <t>2021-11-15T09:34:00Z</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -57827,7 +57977,7 @@
       </c>
       <c r="BA79" t="inlineStr">
         <is>
-          <t>P513DT14H25M41S</t>
+          <t>P513DT14H26M</t>
         </is>
       </c>
       <c r="BB79" t="inlineStr">
@@ -57835,8 +57985,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC79" t="n">
-        <v/>
+      <c r="BC79" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD79" t="inlineStr">
         <is>
@@ -58327,7 +58479,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2021-11-15T09:34:19Z</t>
+          <t>2021-11-15T09:34:00Z</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -58499,7 +58651,7 @@
       </c>
       <c r="BA80" t="inlineStr">
         <is>
-          <t>P513DT14H25M41S</t>
+          <t>P513DT14H26M</t>
         </is>
       </c>
       <c r="BB80" t="inlineStr">
@@ -58507,8 +58659,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC80" t="n">
-        <v/>
+      <c r="BC80" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD80" t="inlineStr">
         <is>
@@ -58989,7 +59143,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2021-11-15T12:53:28Z</t>
+          <t>2021-11-15T12:54:00Z</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -59161,7 +59315,7 @@
       </c>
       <c r="BA81" t="inlineStr">
         <is>
-          <t>P503DT11H6M32S</t>
+          <t>P503DT11H6M</t>
         </is>
       </c>
       <c r="BB81" t="inlineStr">
@@ -59169,8 +59323,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC81" t="n">
-        <v/>
+      <c r="BC81" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD81" t="inlineStr">
         <is>
@@ -59651,7 +59807,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2021-11-15T12:53:28Z</t>
+          <t>2021-11-15T12:54:00Z</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -59823,7 +59979,7 @@
       </c>
       <c r="BA82" t="inlineStr">
         <is>
-          <t>P503DT11H6M32S</t>
+          <t>P503DT11H6M</t>
         </is>
       </c>
       <c r="BB82" t="inlineStr">
@@ -59831,8 +59987,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC82" t="n">
-        <v/>
+      <c r="BC82" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD82" t="inlineStr">
         <is>
@@ -60323,7 +60481,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2021-11-15T12:53:28Z</t>
+          <t>2021-11-15T12:54:00Z</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -60495,7 +60653,7 @@
       </c>
       <c r="BA83" t="inlineStr">
         <is>
-          <t>P503DT11H6M32S</t>
+          <t>P503DT11H6M</t>
         </is>
       </c>
       <c r="BB83" t="inlineStr">
@@ -60503,8 +60661,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC83" t="n">
-        <v/>
+      <c r="BC83" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD83" t="inlineStr">
         <is>
@@ -60995,7 +61155,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2021-11-15T21:21:25Z</t>
+          <t>2021-11-15T21:20:00Z</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -61167,7 +61327,7 @@
       </c>
       <c r="BA84" t="inlineStr">
         <is>
-          <t>P513DT2H38M35S</t>
+          <t>P513DT2H40M</t>
         </is>
       </c>
       <c r="BB84" t="inlineStr">
@@ -61175,8 +61335,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC84" t="n">
-        <v/>
+      <c r="BC84" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD84" t="inlineStr">
         <is>
@@ -61657,7 +61819,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2021-11-15T21:21:25Z</t>
+          <t>2021-11-15T21:20:00Z</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -61829,7 +61991,7 @@
       </c>
       <c r="BA85" t="inlineStr">
         <is>
-          <t>P513DT2H38M35S</t>
+          <t>P513DT2H40M</t>
         </is>
       </c>
       <c r="BB85" t="inlineStr">
@@ -61837,8 +61999,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC85" t="n">
-        <v/>
+      <c r="BC85" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD85" t="inlineStr">
         <is>
@@ -62319,7 +62483,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2021-11-15T21:21:25Z</t>
+          <t>2021-11-15T21:20:00Z</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -62491,7 +62655,7 @@
       </c>
       <c r="BA86" t="inlineStr">
         <is>
-          <t>P513DT2H38M35S</t>
+          <t>P513DT2H40M</t>
         </is>
       </c>
       <c r="BB86" t="inlineStr">
@@ -62499,8 +62663,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC86" t="n">
-        <v/>
+      <c r="BC86" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD86" t="inlineStr">
         <is>
@@ -62981,7 +63147,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2021-11-16T00:44:10Z</t>
+          <t>2021-11-16T00:44:00Z</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -63153,7 +63319,7 @@
       </c>
       <c r="BA87" t="inlineStr">
         <is>
-          <t>P512DT23H15M50S</t>
+          <t>P512DT23H16M</t>
         </is>
       </c>
       <c r="BB87" t="inlineStr">
@@ -63161,8 +63327,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC87" t="n">
-        <v/>
+      <c r="BC87" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD87" t="inlineStr">
         <is>
@@ -63643,7 +63811,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>2021-11-16T00:44:10Z</t>
+          <t>2021-11-16T00:44:00Z</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -63815,7 +63983,7 @@
       </c>
       <c r="BA88" t="inlineStr">
         <is>
-          <t>P512DT23H15M50S</t>
+          <t>P512DT23H16M</t>
         </is>
       </c>
       <c r="BB88" t="inlineStr">
@@ -63823,8 +63991,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC88" t="n">
-        <v/>
+      <c r="BC88" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD88" t="inlineStr">
         <is>
@@ -64305,7 +64475,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>2021-11-16T00:44:10Z</t>
+          <t>2021-11-16T00:44:00Z</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -64477,7 +64647,7 @@
       </c>
       <c r="BA89" t="inlineStr">
         <is>
-          <t>P512DT23H15M50S</t>
+          <t>P512DT23H16M</t>
         </is>
       </c>
       <c r="BB89" t="inlineStr">
@@ -64485,8 +64655,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC89" t="n">
-        <v/>
+      <c r="BC89" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD89" t="inlineStr">
         <is>
@@ -64967,7 +65139,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2021-11-16T07:01:37Z</t>
+          <t>2021-11-16T07:03:00Z</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -65139,7 +65311,7 @@
       </c>
       <c r="BA90" t="inlineStr">
         <is>
-          <t>P502DT16H58M23S</t>
+          <t>P502DT16H57M</t>
         </is>
       </c>
       <c r="BB90" t="inlineStr">
@@ -65147,8 +65319,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC90" t="n">
-        <v/>
+      <c r="BC90" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD90" t="inlineStr">
         <is>
@@ -65629,7 +65803,7 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>2021-11-16T07:01:37Z</t>
+          <t>2021-11-16T07:03:00Z</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -65801,7 +65975,7 @@
       </c>
       <c r="BA91" t="inlineStr">
         <is>
-          <t>P502DT16H58M23S</t>
+          <t>P502DT16H57M</t>
         </is>
       </c>
       <c r="BB91" t="inlineStr">
@@ -65809,8 +65983,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC91" t="n">
-        <v/>
+      <c r="BC91" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD91" t="inlineStr">
         <is>
@@ -66291,7 +66467,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>2021-11-16T07:01:37Z</t>
+          <t>2021-11-16T07:03:00Z</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -66463,7 +66639,7 @@
       </c>
       <c r="BA92" t="inlineStr">
         <is>
-          <t>P502DT16H58M23S</t>
+          <t>P502DT16H57M</t>
         </is>
       </c>
       <c r="BB92" t="inlineStr">
@@ -66471,8 +66647,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC92" t="n">
-        <v/>
+      <c r="BC92" t="inlineStr">
+        <is>
+          <t>2023-04-03T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD92" t="inlineStr">
         <is>
@@ -66953,7 +67131,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>2021-11-16T10:30:20Z</t>
+          <t>2021-11-16T10:31:00Z</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -67125,7 +67303,7 @@
       </c>
       <c r="BA93" t="inlineStr">
         <is>
-          <t>P504DT13H29M40S</t>
+          <t>P504DT13H29M</t>
         </is>
       </c>
       <c r="BB93" t="inlineStr">
@@ -67133,8 +67311,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC93" t="n">
-        <v/>
+      <c r="BC93" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD93" t="inlineStr">
         <is>
@@ -67615,7 +67795,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>2021-11-16T10:30:20Z</t>
+          <t>2021-11-16T10:31:00Z</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -67787,7 +67967,7 @@
       </c>
       <c r="BA94" t="inlineStr">
         <is>
-          <t>P504DT13H29M40S</t>
+          <t>P504DT13H29M</t>
         </is>
       </c>
       <c r="BB94" t="inlineStr">
@@ -67795,8 +67975,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC94" t="n">
-        <v/>
+      <c r="BC94" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD94" t="inlineStr">
         <is>
@@ -68277,7 +68459,7 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>2021-11-16T10:30:20Z</t>
+          <t>2021-11-16T10:31:00Z</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -68449,7 +68631,7 @@
       </c>
       <c r="BA95" t="inlineStr">
         <is>
-          <t>P504DT13H29M40S</t>
+          <t>P504DT13H29M</t>
         </is>
       </c>
       <c r="BB95" t="inlineStr">
@@ -68457,8 +68639,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC95" t="n">
-        <v/>
+      <c r="BC95" t="inlineStr">
+        <is>
+          <t>2023-04-05T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD95" t="inlineStr">
         <is>
@@ -68939,7 +69123,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>2021-11-16T16:33:52Z</t>
+          <t>2021-11-16T16:31:00Z</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -69111,7 +69295,7 @@
       </c>
       <c r="BA96" t="inlineStr">
         <is>
-          <t>P512DT7H26M8S</t>
+          <t>P512DT7H29M</t>
         </is>
       </c>
       <c r="BB96" t="inlineStr">
@@ -69119,8 +69303,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC96" t="n">
-        <v/>
+      <c r="BC96" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD96" t="inlineStr">
         <is>
@@ -69601,7 +69787,7 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>2021-11-16T16:33:52Z</t>
+          <t>2021-11-16T16:31:00Z</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -69773,7 +69959,7 @@
       </c>
       <c r="BA97" t="inlineStr">
         <is>
-          <t>P512DT7H26M8S</t>
+          <t>P512DT7H29M</t>
         </is>
       </c>
       <c r="BB97" t="inlineStr">
@@ -69781,8 +69967,10 @@
           <t>2 mL of 96% molecular grade ethanol used for preservation.</t>
         </is>
       </c>
-      <c r="BC97" t="n">
-        <v/>
+      <c r="BC97" t="inlineStr">
+        <is>
+          <t>2023-04-13T00:00:00Z</t>
+        </is>
       </c>
       <c r="BD97" t="inlineStr">
         <is>

--- a/projects/EcoFoci/skq21_12S/data/skq21_12S_faire.xlsx
+++ b/projects/EcoFoci/skq21_12S/data/skq21_12S_faire.xlsx
@@ -5643,7 +5643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL99"/>
+  <dimension ref="A1:EN99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7019,6 +7019,16 @@
           <t>User defined</t>
         </is>
       </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
@@ -7718,17 +7728,27 @@
       </c>
       <c r="EJ3" t="inlineStr">
         <is>
+          <t>density</t>
+        </is>
+      </c>
+      <c r="EK3" t="inlineStr">
+        <is>
           <t>silicate_unit</t>
         </is>
       </c>
-      <c r="EK3" t="inlineStr">
+      <c r="EL3" t="inlineStr">
         <is>
           <t>phosphate_unit</t>
         </is>
       </c>
-      <c r="EL3" t="inlineStr">
+      <c r="EM3" t="inlineStr">
         <is>
           <t>ammonium_unit</t>
+        </is>
+      </c>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>density_unit</t>
         </is>
       </c>
     </row>
@@ -7991,7 +8011,7 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
@@ -8404,17 +8424,27 @@
       </c>
       <c r="EJ4" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EK4" t="inlineStr">
+        <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK4" t="inlineStr">
+      <c r="EL4" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL4" t="inlineStr">
+      <c r="EM4" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN4" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -8677,7 +8707,7 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
@@ -9090,17 +9120,27 @@
       </c>
       <c r="EJ5" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EK5" t="inlineStr">
+        <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK5" t="inlineStr">
+      <c r="EL5" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL5" t="inlineStr">
+      <c r="EM5" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -9363,7 +9403,7 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
@@ -9776,17 +9816,27 @@
       </c>
       <c r="EJ6" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EK6" t="inlineStr">
+        <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK6" t="inlineStr">
+      <c r="EL6" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL6" t="inlineStr">
+      <c r="EM6" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN6" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10099,7 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
@@ -10438,19 +10488,27 @@
       <c r="EI7" t="n">
         <v>3</v>
       </c>
-      <c r="EJ7" t="inlineStr">
+      <c r="EJ7" t="n">
+        <v>26.1149</v>
+      </c>
+      <c r="EK7" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK7" t="inlineStr">
+      <c r="EL7" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL7" t="inlineStr">
+      <c r="EM7" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN7" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -10713,7 +10771,7 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
@@ -11102,19 +11160,27 @@
       <c r="EI8" t="n">
         <v>8</v>
       </c>
-      <c r="EJ8" t="inlineStr">
+      <c r="EJ8" t="n">
+        <v>24.652262</v>
+      </c>
+      <c r="EK8" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK8" t="inlineStr">
+      <c r="EL8" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL8" t="inlineStr">
+      <c r="EM8" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN8" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -11377,7 +11443,7 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
@@ -11766,19 +11832,27 @@
       <c r="EI9" t="n">
         <v>14</v>
       </c>
-      <c r="EJ9" t="inlineStr">
+      <c r="EJ9" t="n">
+        <v>24.653498</v>
+      </c>
+      <c r="EK9" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK9" t="inlineStr">
+      <c r="EL9" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL9" t="inlineStr">
+      <c r="EM9" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN9" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -12041,7 +12115,7 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
@@ -12430,19 +12504,27 @@
       <c r="EI10" t="n">
         <v>2</v>
       </c>
-      <c r="EJ10" t="inlineStr">
+      <c r="EJ10" t="n">
+        <v>26.04159</v>
+      </c>
+      <c r="EK10" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK10" t="inlineStr">
+      <c r="EL10" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL10" t="inlineStr">
+      <c r="EM10" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN10" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -12705,7 +12787,7 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
@@ -13094,19 +13176,27 @@
       <c r="EI11" t="n">
         <v>6</v>
       </c>
-      <c r="EJ11" t="inlineStr">
+      <c r="EJ11" t="n">
+        <v>25.620317</v>
+      </c>
+      <c r="EK11" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK11" t="inlineStr">
+      <c r="EL11" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL11" t="inlineStr">
+      <c r="EM11" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN11" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13459,7 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
@@ -13758,19 +13848,27 @@
       <c r="EI12" t="n">
         <v>11</v>
       </c>
-      <c r="EJ12" t="inlineStr">
+      <c r="EJ12" t="n">
+        <v>24.632223</v>
+      </c>
+      <c r="EK12" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK12" t="inlineStr">
+      <c r="EL12" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL12" t="inlineStr">
+      <c r="EM12" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN12" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -14033,7 +14131,7 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
@@ -14422,19 +14520,27 @@
       <c r="EI13" t="n">
         <v>2</v>
       </c>
-      <c r="EJ13" t="inlineStr">
+      <c r="EJ13" t="n">
+        <v>25.795477</v>
+      </c>
+      <c r="EK13" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK13" t="inlineStr">
+      <c r="EL13" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL13" t="inlineStr">
+      <c r="EM13" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN13" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -14697,7 +14803,7 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
@@ -15086,19 +15192,27 @@
       <c r="EI14" t="n">
         <v>5</v>
       </c>
-      <c r="EJ14" t="inlineStr">
+      <c r="EJ14" t="n">
+        <v>25.797718</v>
+      </c>
+      <c r="EK14" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK14" t="inlineStr">
+      <c r="EL14" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL14" t="inlineStr">
+      <c r="EM14" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN14" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -15361,7 +15475,7 @@
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
@@ -15750,19 +15864,27 @@
       <c r="EI15" t="n">
         <v>11</v>
       </c>
-      <c r="EJ15" t="inlineStr">
+      <c r="EJ15" t="n">
+        <v>24.718752</v>
+      </c>
+      <c r="EK15" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK15" t="inlineStr">
+      <c r="EL15" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL15" t="inlineStr">
+      <c r="EM15" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN15" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16147,7 @@
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
@@ -16414,19 +16536,27 @@
       <c r="EI16" t="n">
         <v>3</v>
       </c>
-      <c r="EJ16" t="inlineStr">
+      <c r="EJ16" t="n">
+        <v>26.371777</v>
+      </c>
+      <c r="EK16" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK16" t="inlineStr">
+      <c r="EL16" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL16" t="inlineStr">
+      <c r="EM16" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN16" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -16689,7 +16819,7 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
@@ -17078,19 +17208,27 @@
       <c r="EI17" t="n">
         <v>5</v>
       </c>
-      <c r="EJ17" t="inlineStr">
+      <c r="EJ17" t="n">
+        <v>26.113531</v>
+      </c>
+      <c r="EK17" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK17" t="inlineStr">
+      <c r="EL17" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL17" t="inlineStr">
+      <c r="EM17" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN17" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -17353,7 +17491,7 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
@@ -17742,19 +17880,27 @@
       <c r="EI18" t="n">
         <v>11</v>
       </c>
-      <c r="EJ18" t="inlineStr">
+      <c r="EJ18" t="n">
+        <v>24.679108</v>
+      </c>
+      <c r="EK18" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK18" t="inlineStr">
+      <c r="EL18" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL18" t="inlineStr">
+      <c r="EM18" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN18" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -18017,7 +18163,7 @@
       </c>
       <c r="BC19" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD19" t="inlineStr">
@@ -18406,19 +18552,27 @@
       <c r="EI19" t="n">
         <v>2</v>
       </c>
-      <c r="EJ19" t="inlineStr">
+      <c r="EJ19" t="n">
+        <v>26.361738</v>
+      </c>
+      <c r="EK19" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK19" t="inlineStr">
+      <c r="EL19" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL19" t="inlineStr">
+      <c r="EM19" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN19" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -18681,7 +18835,7 @@
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD20" t="inlineStr">
@@ -19070,19 +19224,27 @@
       <c r="EI20" t="n">
         <v>8</v>
       </c>
-      <c r="EJ20" t="inlineStr">
+      <c r="EJ20" t="n">
+        <v>26.188961</v>
+      </c>
+      <c r="EK20" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK20" t="inlineStr">
+      <c r="EL20" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL20" t="inlineStr">
+      <c r="EM20" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN20" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -19345,7 +19507,7 @@
       </c>
       <c r="BC21" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD21" t="inlineStr">
@@ -19734,19 +19896,27 @@
       <c r="EI21" t="n">
         <v>14</v>
       </c>
-      <c r="EJ21" t="inlineStr">
+      <c r="EJ21" t="n">
+        <v>24.619558</v>
+      </c>
+      <c r="EK21" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK21" t="inlineStr">
+      <c r="EL21" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL21" t="inlineStr">
+      <c r="EM21" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN21" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -20009,7 +20179,7 @@
       </c>
       <c r="BC22" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD22" t="inlineStr">
@@ -20398,19 +20568,27 @@
       <c r="EI22" t="n">
         <v>2</v>
       </c>
-      <c r="EJ22" t="inlineStr">
+      <c r="EJ22" t="n">
+        <v>26.41508</v>
+      </c>
+      <c r="EK22" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK22" t="inlineStr">
+      <c r="EL22" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL22" t="inlineStr">
+      <c r="EM22" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN22" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -20673,7 +20851,7 @@
       </c>
       <c r="BC23" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD23" t="inlineStr">
@@ -21062,19 +21240,27 @@
       <c r="EI23" t="n">
         <v>5</v>
       </c>
-      <c r="EJ23" t="inlineStr">
+      <c r="EJ23" t="n">
+        <v>26.409986</v>
+      </c>
+      <c r="EK23" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK23" t="inlineStr">
+      <c r="EL23" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL23" t="inlineStr">
+      <c r="EM23" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN23" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -21337,7 +21523,7 @@
       </c>
       <c r="BC24" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD24" t="inlineStr">
@@ -21726,19 +21912,27 @@
       <c r="EI24" t="n">
         <v>11</v>
       </c>
-      <c r="EJ24" t="inlineStr">
+      <c r="EJ24" t="n">
+        <v>24.54665</v>
+      </c>
+      <c r="EK24" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK24" t="inlineStr">
+      <c r="EL24" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL24" t="inlineStr">
+      <c r="EM24" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN24" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -22001,7 +22195,7 @@
       </c>
       <c r="BC25" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD25" t="inlineStr">
@@ -22390,19 +22584,27 @@
       <c r="EI25" t="n">
         <v>2</v>
       </c>
-      <c r="EJ25" t="inlineStr">
+      <c r="EJ25" t="n">
+        <v>26.372078</v>
+      </c>
+      <c r="EK25" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK25" t="inlineStr">
+      <c r="EL25" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL25" t="inlineStr">
+      <c r="EM25" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN25" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -22665,7 +22867,7 @@
       </c>
       <c r="BC26" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD26" t="inlineStr">
@@ -23054,19 +23256,27 @@
       <c r="EI26" t="n">
         <v>5</v>
       </c>
-      <c r="EJ26" t="inlineStr">
+      <c r="EJ26" t="n">
+        <v>26.153942</v>
+      </c>
+      <c r="EK26" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK26" t="inlineStr">
+      <c r="EL26" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL26" t="inlineStr">
+      <c r="EM26" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN26" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -23329,7 +23539,7 @@
       </c>
       <c r="BC27" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD27" t="inlineStr">
@@ -23718,19 +23928,27 @@
       <c r="EI27" t="n">
         <v>11</v>
       </c>
-      <c r="EJ27" t="inlineStr">
+      <c r="EJ27" t="n">
+        <v>24.528755</v>
+      </c>
+      <c r="EK27" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK27" t="inlineStr">
+      <c r="EL27" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL27" t="inlineStr">
+      <c r="EM27" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN27" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -23993,7 +24211,7 @@
       </c>
       <c r="BC28" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD28" t="inlineStr">
@@ -24382,19 +24600,27 @@
       <c r="EI28" t="n">
         <v>2</v>
       </c>
-      <c r="EJ28" t="inlineStr">
+      <c r="EJ28" t="n">
+        <v>25.366898</v>
+      </c>
+      <c r="EK28" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK28" t="inlineStr">
+      <c r="EL28" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL28" t="inlineStr">
+      <c r="EM28" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN28" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -24657,7 +24883,7 @@
       </c>
       <c r="BC29" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD29" t="inlineStr">
@@ -25046,19 +25272,27 @@
       <c r="EI29" t="n">
         <v>5</v>
       </c>
-      <c r="EJ29" t="inlineStr">
+      <c r="EJ29" t="n">
+        <v>25.066292</v>
+      </c>
+      <c r="EK29" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK29" t="inlineStr">
+      <c r="EL29" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL29" t="inlineStr">
+      <c r="EM29" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN29" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -25321,7 +25555,7 @@
       </c>
       <c r="BC30" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD30" t="inlineStr">
@@ -25710,19 +25944,27 @@
       <c r="EI30" t="n">
         <v>11</v>
       </c>
-      <c r="EJ30" t="inlineStr">
+      <c r="EJ30" t="n">
+        <v>25.005898</v>
+      </c>
+      <c r="EK30" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK30" t="inlineStr">
+      <c r="EL30" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL30" t="inlineStr">
+      <c r="EM30" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN30" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -25985,7 +26227,7 @@
       </c>
       <c r="BC31" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD31" t="inlineStr">
@@ -26374,19 +26616,27 @@
       <c r="EI31" t="n">
         <v>2</v>
       </c>
-      <c r="EJ31" t="inlineStr">
+      <c r="EJ31" t="n">
+        <v>24.793299</v>
+      </c>
+      <c r="EK31" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK31" t="inlineStr">
+      <c r="EL31" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL31" t="inlineStr">
+      <c r="EM31" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN31" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -26649,7 +26899,7 @@
       </c>
       <c r="BC32" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD32" t="inlineStr">
@@ -27038,19 +27288,27 @@
       <c r="EI32" t="n">
         <v>6</v>
       </c>
-      <c r="EJ32" t="inlineStr">
+      <c r="EJ32" t="n">
+        <v>23.886913</v>
+      </c>
+      <c r="EK32" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK32" t="inlineStr">
+      <c r="EL32" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL32" t="inlineStr">
+      <c r="EM32" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN32" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -27313,7 +27571,7 @@
       </c>
       <c r="BC33" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD33" t="inlineStr">
@@ -27702,19 +27960,27 @@
       <c r="EI33" t="n">
         <v>2</v>
       </c>
-      <c r="EJ33" t="inlineStr">
+      <c r="EJ33" t="n">
+        <v>25.363726</v>
+      </c>
+      <c r="EK33" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK33" t="inlineStr">
+      <c r="EL33" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL33" t="inlineStr">
+      <c r="EM33" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN33" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -27977,7 +28243,7 @@
       </c>
       <c r="BC34" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD34" t="inlineStr">
@@ -28366,19 +28632,27 @@
       <c r="EI34" t="n">
         <v>5</v>
       </c>
-      <c r="EJ34" t="inlineStr">
+      <c r="EJ34" t="n">
+        <v>25.360302</v>
+      </c>
+      <c r="EK34" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK34" t="inlineStr">
+      <c r="EL34" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL34" t="inlineStr">
+      <c r="EM34" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN34" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -28641,7 +28915,7 @@
       </c>
       <c r="BC35" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD35" t="inlineStr">
@@ -29030,19 +29304,27 @@
       <c r="EI35" t="n">
         <v>11</v>
       </c>
-      <c r="EJ35" t="inlineStr">
+      <c r="EJ35" t="n">
+        <v>23.876392</v>
+      </c>
+      <c r="EK35" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK35" t="inlineStr">
+      <c r="EL35" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL35" t="inlineStr">
+      <c r="EM35" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN35" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -29305,7 +29587,7 @@
       </c>
       <c r="BC36" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD36" t="inlineStr">
@@ -29694,19 +29976,27 @@
       <c r="EI36" t="n">
         <v>4</v>
       </c>
-      <c r="EJ36" t="inlineStr">
+      <c r="EJ36" t="n">
+        <v>25.497843</v>
+      </c>
+      <c r="EK36" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK36" t="inlineStr">
+      <c r="EL36" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL36" t="inlineStr">
+      <c r="EM36" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN36" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -29969,7 +30259,7 @@
       </c>
       <c r="BC37" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD37" t="inlineStr">
@@ -30358,19 +30648,27 @@
       <c r="EI37" t="n">
         <v>8</v>
       </c>
-      <c r="EJ37" t="inlineStr">
+      <c r="EJ37" t="n">
+        <v>25.499554</v>
+      </c>
+      <c r="EK37" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK37" t="inlineStr">
+      <c r="EL37" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL37" t="inlineStr">
+      <c r="EM37" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN37" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -30633,7 +30931,7 @@
       </c>
       <c r="BC38" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD38" t="inlineStr">
@@ -31022,19 +31320,27 @@
       <c r="EI38" t="n">
         <v>16</v>
       </c>
-      <c r="EJ38" t="inlineStr">
+      <c r="EJ38" t="n">
+        <v>23.872551</v>
+      </c>
+      <c r="EK38" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK38" t="inlineStr">
+      <c r="EL38" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL38" t="inlineStr">
+      <c r="EM38" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN38" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -31297,7 +31603,7 @@
       </c>
       <c r="BC39" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD39" t="inlineStr">
@@ -31686,19 +31992,27 @@
       <c r="EI39" t="n">
         <v>4</v>
       </c>
-      <c r="EJ39" t="inlineStr">
+      <c r="EJ39" t="n">
+        <v>25.556532</v>
+      </c>
+      <c r="EK39" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK39" t="inlineStr">
+      <c r="EL39" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL39" t="inlineStr">
+      <c r="EM39" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN39" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -31961,7 +32275,7 @@
       </c>
       <c r="BC40" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD40" t="inlineStr">
@@ -32350,19 +32664,27 @@
       <c r="EI40" t="n">
         <v>12</v>
       </c>
-      <c r="EJ40" t="inlineStr">
+      <c r="EJ40" t="n">
+        <v>25.566217</v>
+      </c>
+      <c r="EK40" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK40" t="inlineStr">
+      <c r="EL40" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL40" t="inlineStr">
+      <c r="EM40" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN40" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -32625,7 +32947,7 @@
       </c>
       <c r="BC41" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD41" t="inlineStr">
@@ -33014,19 +33336,27 @@
       <c r="EI41" t="n">
         <v>20</v>
       </c>
-      <c r="EJ41" t="inlineStr">
+      <c r="EJ41" t="n">
+        <v>23.88888</v>
+      </c>
+      <c r="EK41" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK41" t="inlineStr">
+      <c r="EL41" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL41" t="inlineStr">
+      <c r="EM41" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN41" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -33289,7 +33619,7 @@
       </c>
       <c r="BC42" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD42" t="inlineStr">
@@ -33678,19 +34008,27 @@
       <c r="EI42" t="n">
         <v>4</v>
       </c>
-      <c r="EJ42" t="inlineStr">
+      <c r="EJ42" t="n">
+        <v>26.52363</v>
+      </c>
+      <c r="EK42" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK42" t="inlineStr">
+      <c r="EL42" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL42" t="inlineStr">
+      <c r="EM42" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN42" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -33953,7 +34291,7 @@
       </c>
       <c r="BC43" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD43" t="inlineStr">
@@ -34342,19 +34680,27 @@
       <c r="EI43" t="n">
         <v>12</v>
       </c>
-      <c r="EJ43" t="inlineStr">
+      <c r="EJ43" t="n">
+        <v>26.501741</v>
+      </c>
+      <c r="EK43" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK43" t="inlineStr">
+      <c r="EL43" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL43" t="inlineStr">
+      <c r="EM43" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN43" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -34617,7 +34963,7 @@
       </c>
       <c r="BC44" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD44" t="inlineStr">
@@ -35016,19 +35362,27 @@
       <c r="EI44" t="n">
         <v>20</v>
       </c>
-      <c r="EJ44" t="inlineStr">
+      <c r="EJ44" t="n">
+        <v>24.468372</v>
+      </c>
+      <c r="EK44" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK44" t="inlineStr">
+      <c r="EL44" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL44" t="inlineStr">
+      <c r="EM44" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN44" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -35291,7 +35645,7 @@
       </c>
       <c r="BC45" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD45" t="inlineStr">
@@ -35680,19 +36034,27 @@
       <c r="EI45" t="n">
         <v>4</v>
       </c>
-      <c r="EJ45" t="inlineStr">
+      <c r="EJ45" t="n">
+        <v>26.437235</v>
+      </c>
+      <c r="EK45" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK45" t="inlineStr">
+      <c r="EL45" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL45" t="inlineStr">
+      <c r="EM45" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN45" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -35955,7 +36317,7 @@
       </c>
       <c r="BC46" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD46" t="inlineStr">
@@ -36344,19 +36706,27 @@
       <c r="EI46" t="n">
         <v>12</v>
       </c>
-      <c r="EJ46" t="inlineStr">
+      <c r="EJ46" t="n">
+        <v>26.331417</v>
+      </c>
+      <c r="EK46" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK46" t="inlineStr">
+      <c r="EL46" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL46" t="inlineStr">
+      <c r="EM46" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN46" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -36619,7 +36989,7 @@
       </c>
       <c r="BC47" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD47" t="inlineStr">
@@ -37008,19 +37378,27 @@
       <c r="EI47" t="n">
         <v>20</v>
       </c>
-      <c r="EJ47" t="inlineStr">
+      <c r="EJ47" t="n">
+        <v>24.592676</v>
+      </c>
+      <c r="EK47" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK47" t="inlineStr">
+      <c r="EL47" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL47" t="inlineStr">
+      <c r="EM47" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN47" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -37283,7 +37661,7 @@
       </c>
       <c r="BC48" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD48" t="inlineStr">
@@ -37672,19 +38050,27 @@
       <c r="EI48" t="n">
         <v>4</v>
       </c>
-      <c r="EJ48" t="inlineStr">
+      <c r="EJ48" t="n">
+        <v>26.645817</v>
+      </c>
+      <c r="EK48" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK48" t="inlineStr">
+      <c r="EL48" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL48" t="inlineStr">
+      <c r="EM48" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN48" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -37947,7 +38333,7 @@
       </c>
       <c r="BC49" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD49" t="inlineStr">
@@ -38336,19 +38722,27 @@
       <c r="EI49" t="n">
         <v>12</v>
       </c>
-      <c r="EJ49" t="inlineStr">
+      <c r="EJ49" t="n">
+        <v>26.357227</v>
+      </c>
+      <c r="EK49" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK49" t="inlineStr">
+      <c r="EL49" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL49" t="inlineStr">
+      <c r="EM49" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN49" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -38611,7 +39005,7 @@
       </c>
       <c r="BC50" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD50" t="inlineStr">
@@ -39000,19 +39394,27 @@
       <c r="EI50" t="n">
         <v>20</v>
       </c>
-      <c r="EJ50" t="inlineStr">
+      <c r="EJ50" t="n">
+        <v>24.662867</v>
+      </c>
+      <c r="EK50" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK50" t="inlineStr">
+      <c r="EL50" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL50" t="inlineStr">
+      <c r="EM50" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN50" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -39275,7 +39677,7 @@
       </c>
       <c r="BC51" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD51" t="inlineStr">
@@ -39674,19 +40076,27 @@
       <c r="EI51" t="n">
         <v>2</v>
       </c>
-      <c r="EJ51" t="inlineStr">
+      <c r="EJ51" t="n">
+        <v>25.988071</v>
+      </c>
+      <c r="EK51" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK51" t="inlineStr">
+      <c r="EL51" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL51" t="inlineStr">
+      <c r="EM51" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN51" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -39949,7 +40359,7 @@
       </c>
       <c r="BC52" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD52" t="inlineStr">
@@ -40348,19 +40758,27 @@
       <c r="EI52" t="n">
         <v>11</v>
       </c>
-      <c r="EJ52" t="inlineStr">
+      <c r="EJ52" t="n">
+        <v>25.973248</v>
+      </c>
+      <c r="EK52" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK52" t="inlineStr">
+      <c r="EL52" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL52" t="inlineStr">
+      <c r="EM52" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN52" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -40623,7 +41041,7 @@
       </c>
       <c r="BC53" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD53" t="inlineStr">
@@ -41012,19 +41430,27 @@
       <c r="EI53" t="n">
         <v>17</v>
       </c>
-      <c r="EJ53" t="inlineStr">
+      <c r="EJ53" t="n">
+        <v>25.948563</v>
+      </c>
+      <c r="EK53" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK53" t="inlineStr">
+      <c r="EL53" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL53" t="inlineStr">
+      <c r="EM53" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN53" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -41287,7 +41713,7 @@
       </c>
       <c r="BC54" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD54" t="inlineStr">
@@ -41676,19 +42102,27 @@
       <c r="EI54" t="n">
         <v>3</v>
       </c>
-      <c r="EJ54" t="inlineStr">
+      <c r="EJ54" t="n">
+        <v>26.12603</v>
+      </c>
+      <c r="EK54" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK54" t="inlineStr">
+      <c r="EL54" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL54" t="inlineStr">
+      <c r="EM54" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN54" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -41951,7 +42385,7 @@
       </c>
       <c r="BC55" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD55" t="inlineStr">
@@ -42350,19 +42784,27 @@
       <c r="EI55" t="n">
         <v>12</v>
       </c>
-      <c r="EJ55" t="inlineStr">
+      <c r="EJ55" t="n">
+        <v>26.094376</v>
+      </c>
+      <c r="EK55" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK55" t="inlineStr">
+      <c r="EL55" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL55" t="inlineStr">
+      <c r="EM55" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN55" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -42625,7 +43067,7 @@
       </c>
       <c r="BC56" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD56" t="inlineStr">
@@ -43024,19 +43466,27 @@
       <c r="EI56" t="n">
         <v>18</v>
       </c>
-      <c r="EJ56" t="inlineStr">
+      <c r="EJ56" t="n">
+        <v>26.092958</v>
+      </c>
+      <c r="EK56" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK56" t="inlineStr">
+      <c r="EL56" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL56" t="inlineStr">
+      <c r="EM56" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN56" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -43299,7 +43749,7 @@
       </c>
       <c r="BC57" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD57" t="inlineStr">
@@ -43688,19 +44138,27 @@
       <c r="EI57" t="n">
         <v>3</v>
       </c>
-      <c r="EJ57" t="inlineStr">
+      <c r="EJ57" t="n">
+        <v>26.153605</v>
+      </c>
+      <c r="EK57" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK57" t="inlineStr">
+      <c r="EL57" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL57" t="inlineStr">
+      <c r="EM57" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN57" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -43963,7 +44421,7 @@
       </c>
       <c r="BC58" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD58" t="inlineStr">
@@ -44362,19 +44820,27 @@
       <c r="EI58" t="n">
         <v>12</v>
       </c>
-      <c r="EJ58" t="inlineStr">
+      <c r="EJ58" t="n">
+        <v>26.141447</v>
+      </c>
+      <c r="EK58" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK58" t="inlineStr">
+      <c r="EL58" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL58" t="inlineStr">
+      <c r="EM58" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN58" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -44637,7 +45103,7 @@
       </c>
       <c r="BC59" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD59" t="inlineStr">
@@ -45026,19 +45492,27 @@
       <c r="EI59" t="n">
         <v>18</v>
       </c>
-      <c r="EJ59" t="inlineStr">
+      <c r="EJ59" t="n">
+        <v>26.142641</v>
+      </c>
+      <c r="EK59" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK59" t="inlineStr">
+      <c r="EL59" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL59" t="inlineStr">
+      <c r="EM59" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN59" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -45301,7 +45775,7 @@
       </c>
       <c r="BC60" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD60" t="inlineStr">
@@ -45690,19 +46164,27 @@
       <c r="EI60" t="n">
         <v>3</v>
       </c>
-      <c r="EJ60" t="inlineStr">
+      <c r="EJ60" t="n">
+        <v>26.094181</v>
+      </c>
+      <c r="EK60" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK60" t="inlineStr">
+      <c r="EL60" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL60" t="inlineStr">
+      <c r="EM60" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN60" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -45965,7 +46447,7 @@
       </c>
       <c r="BC61" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD61" t="inlineStr">
@@ -46354,19 +46836,27 @@
       <c r="EI61" t="n">
         <v>12</v>
       </c>
-      <c r="EJ61" t="inlineStr">
+      <c r="EJ61" t="n">
+        <v>26.028011</v>
+      </c>
+      <c r="EK61" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK61" t="inlineStr">
+      <c r="EL61" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL61" t="inlineStr">
+      <c r="EM61" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN61" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -46629,7 +47119,7 @@
       </c>
       <c r="BC62" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD62" t="inlineStr">
@@ -47018,19 +47508,27 @@
       <c r="EI62" t="n">
         <v>18</v>
       </c>
-      <c r="EJ62" t="inlineStr">
+      <c r="EJ62" t="n">
+        <v>26.022879</v>
+      </c>
+      <c r="EK62" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK62" t="inlineStr">
+      <c r="EL62" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL62" t="inlineStr">
+      <c r="EM62" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN62" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -47293,7 +47791,7 @@
       </c>
       <c r="BC63" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD63" t="inlineStr">
@@ -47682,19 +48180,27 @@
       <c r="EI63" t="n">
         <v>3</v>
       </c>
-      <c r="EJ63" t="inlineStr">
+      <c r="EJ63" t="n">
+        <v>26.148674</v>
+      </c>
+      <c r="EK63" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK63" t="inlineStr">
+      <c r="EL63" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL63" t="inlineStr">
+      <c r="EM63" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN63" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -47957,7 +48463,7 @@
       </c>
       <c r="BC64" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD64" t="inlineStr">
@@ -48356,19 +48862,27 @@
       <c r="EI64" t="n">
         <v>12</v>
       </c>
-      <c r="EJ64" t="inlineStr">
+      <c r="EJ64" t="n">
+        <v>25.867325</v>
+      </c>
+      <c r="EK64" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK64" t="inlineStr">
+      <c r="EL64" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL64" t="inlineStr">
+      <c r="EM64" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN64" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -48631,7 +49145,7 @@
       </c>
       <c r="BC65" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD65" t="inlineStr">
@@ -49020,19 +49534,27 @@
       <c r="EI65" t="n">
         <v>18</v>
       </c>
-      <c r="EJ65" t="inlineStr">
+      <c r="EJ65" t="n">
+        <v>25.866755</v>
+      </c>
+      <c r="EK65" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK65" t="inlineStr">
+      <c r="EL65" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL65" t="inlineStr">
+      <c r="EM65" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN65" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -49295,7 +49817,7 @@
       </c>
       <c r="BC66" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD66" t="inlineStr">
@@ -49684,19 +50206,27 @@
       <c r="EI66" t="n">
         <v>3</v>
       </c>
-      <c r="EJ66" t="inlineStr">
+      <c r="EJ66" t="n">
+        <v>26.117498</v>
+      </c>
+      <c r="EK66" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK66" t="inlineStr">
+      <c r="EL66" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL66" t="inlineStr">
+      <c r="EM66" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN66" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -49959,7 +50489,7 @@
       </c>
       <c r="BC67" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD67" t="inlineStr">
@@ -50348,19 +50878,27 @@
       <c r="EI67" t="n">
         <v>12</v>
       </c>
-      <c r="EJ67" t="inlineStr">
+      <c r="EJ67" t="n">
+        <v>25.754057</v>
+      </c>
+      <c r="EK67" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK67" t="inlineStr">
+      <c r="EL67" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL67" t="inlineStr">
+      <c r="EM67" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN67" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -50623,7 +51161,7 @@
       </c>
       <c r="BC68" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD68" t="inlineStr">
@@ -51012,19 +51550,27 @@
       <c r="EI68" t="n">
         <v>18</v>
       </c>
-      <c r="EJ68" t="inlineStr">
+      <c r="EJ68" t="n">
+        <v>25.754272</v>
+      </c>
+      <c r="EK68" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK68" t="inlineStr">
+      <c r="EL68" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL68" t="inlineStr">
+      <c r="EM68" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN68" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -51287,7 +51833,7 @@
       </c>
       <c r="BC69" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD69" t="inlineStr">
@@ -51686,19 +52232,27 @@
       <c r="EI69" t="n">
         <v>3</v>
       </c>
-      <c r="EJ69" t="inlineStr">
+      <c r="EJ69" t="n">
+        <v>25.98429</v>
+      </c>
+      <c r="EK69" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK69" t="inlineStr">
+      <c r="EL69" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL69" t="inlineStr">
+      <c r="EM69" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN69" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -51961,7 +52515,7 @@
       </c>
       <c r="BC70" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD70" t="inlineStr">
@@ -52360,19 +52914,27 @@
       <c r="EI70" t="n">
         <v>12</v>
       </c>
-      <c r="EJ70" t="inlineStr">
+      <c r="EJ70" t="n">
+        <v>25.59897</v>
+      </c>
+      <c r="EK70" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK70" t="inlineStr">
+      <c r="EL70" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL70" t="inlineStr">
+      <c r="EM70" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN70" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -52635,7 +53197,7 @@
       </c>
       <c r="BC71" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD71" t="inlineStr">
@@ -53024,19 +53586,27 @@
       <c r="EI71" t="n">
         <v>18</v>
       </c>
-      <c r="EJ71" t="inlineStr">
+      <c r="EJ71" t="n">
+        <v>25.557528</v>
+      </c>
+      <c r="EK71" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK71" t="inlineStr">
+      <c r="EL71" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL71" t="inlineStr">
+      <c r="EM71" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN71" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -53299,7 +53869,7 @@
       </c>
       <c r="BC72" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD72" t="inlineStr">
@@ -53698,19 +54268,27 @@
       <c r="EI72" t="n">
         <v>3</v>
       </c>
-      <c r="EJ72" t="inlineStr">
+      <c r="EJ72" t="n">
+        <v>25.934607</v>
+      </c>
+      <c r="EK72" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK72" t="inlineStr">
+      <c r="EL72" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL72" t="inlineStr">
+      <c r="EM72" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN72" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -53973,7 +54551,7 @@
       </c>
       <c r="BC73" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD73" t="inlineStr">
@@ -54362,19 +54940,27 @@
       <c r="EI73" t="n">
         <v>12</v>
       </c>
-      <c r="EJ73" t="inlineStr">
+      <c r="EJ73" t="n">
+        <v>25.461432</v>
+      </c>
+      <c r="EK73" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK73" t="inlineStr">
+      <c r="EL73" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL73" t="inlineStr">
+      <c r="EM73" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN73" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -54637,7 +55223,7 @@
       </c>
       <c r="BC74" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD74" t="inlineStr">
@@ -55036,19 +55622,27 @@
       <c r="EI74" t="n">
         <v>18</v>
       </c>
-      <c r="EJ74" t="inlineStr">
+      <c r="EJ74" t="n">
+        <v>25.45653</v>
+      </c>
+      <c r="EK74" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK74" t="inlineStr">
+      <c r="EL74" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL74" t="inlineStr">
+      <c r="EM74" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN74" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -55311,7 +55905,7 @@
       </c>
       <c r="BC75" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD75" t="inlineStr">
@@ -55700,19 +56294,27 @@
       <c r="EI75" t="n">
         <v>3</v>
       </c>
-      <c r="EJ75" t="inlineStr">
+      <c r="EJ75" t="n">
+        <v>26.128445</v>
+      </c>
+      <c r="EK75" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK75" t="inlineStr">
+      <c r="EL75" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL75" t="inlineStr">
+      <c r="EM75" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN75" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -55975,7 +56577,7 @@
       </c>
       <c r="BC76" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD76" t="inlineStr">
@@ -56374,19 +56976,27 @@
       <c r="EI76" t="n">
         <v>12</v>
       </c>
-      <c r="EJ76" t="inlineStr">
+      <c r="EJ76" t="n">
+        <v>25.428856</v>
+      </c>
+      <c r="EK76" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK76" t="inlineStr">
+      <c r="EL76" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL76" t="inlineStr">
+      <c r="EM76" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN76" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -56649,7 +57259,7 @@
       </c>
       <c r="BC77" t="inlineStr">
         <is>
-          <t>2023-04-11T00:00:00Z</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="BD77" t="inlineStr">
@@ -57038,19 +57648,27 @@
       <c r="EI77" t="n">
         <v>18</v>
       </c>
-      <c r="EJ77" t="inlineStr">
+      <c r="EJ77" t="n">
+        <v>25.418156</v>
+      </c>
+      <c r="EK77" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK77" t="inlineStr">
+      <c r="EL77" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL77" t="inlineStr">
+      <c r="EM77" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN77" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -57313,7 +57931,7 @@
       </c>
       <c r="BC78" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD78" t="inlineStr">
@@ -57712,19 +58330,27 @@
       <c r="EI78" t="n">
         <v>3</v>
       </c>
-      <c r="EJ78" t="inlineStr">
+      <c r="EJ78" t="n">
+        <v>26.158173</v>
+      </c>
+      <c r="EK78" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK78" t="inlineStr">
+      <c r="EL78" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL78" t="inlineStr">
+      <c r="EM78" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN78" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -57987,7 +58613,7 @@
       </c>
       <c r="BC79" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD79" t="inlineStr">
@@ -58386,19 +59012,27 @@
       <c r="EI79" t="n">
         <v>12</v>
       </c>
-      <c r="EJ79" t="inlineStr">
+      <c r="EJ79" t="n">
+        <v>25.430037</v>
+      </c>
+      <c r="EK79" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK79" t="inlineStr">
+      <c r="EL79" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL79" t="inlineStr">
+      <c r="EM79" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN79" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -58661,7 +59295,7 @@
       </c>
       <c r="BC80" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD80" t="inlineStr">
@@ -59050,19 +59684,27 @@
       <c r="EI80" t="n">
         <v>18</v>
       </c>
-      <c r="EJ80" t="inlineStr">
+      <c r="EJ80" t="n">
+        <v>25.421965</v>
+      </c>
+      <c r="EK80" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK80" t="inlineStr">
+      <c r="EL80" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL80" t="inlineStr">
+      <c r="EM80" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN80" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -59325,7 +59967,7 @@
       </c>
       <c r="BC81" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD81" t="inlineStr">
@@ -59714,19 +60356,27 @@
       <c r="EI81" t="n">
         <v>3</v>
       </c>
-      <c r="EJ81" t="inlineStr">
+      <c r="EJ81" t="n">
+        <v>26.22198</v>
+      </c>
+      <c r="EK81" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK81" t="inlineStr">
+      <c r="EL81" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL81" t="inlineStr">
+      <c r="EM81" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN81" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -59989,7 +60639,7 @@
       </c>
       <c r="BC82" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD82" t="inlineStr">
@@ -60388,19 +61038,27 @@
       <c r="EI82" t="n">
         <v>9</v>
       </c>
-      <c r="EJ82" t="inlineStr">
+      <c r="EJ82" t="n">
+        <v>25.65231</v>
+      </c>
+      <c r="EK82" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK82" t="inlineStr">
+      <c r="EL82" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL82" t="inlineStr">
+      <c r="EM82" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN82" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -60663,7 +61321,7 @@
       </c>
       <c r="BC83" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD83" t="inlineStr">
@@ -61062,19 +61720,27 @@
       <c r="EI83" t="n">
         <v>15</v>
       </c>
-      <c r="EJ83" t="inlineStr">
+      <c r="EJ83" t="n">
+        <v>25.537018</v>
+      </c>
+      <c r="EK83" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK83" t="inlineStr">
+      <c r="EL83" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL83" t="inlineStr">
+      <c r="EM83" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN83" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -61337,7 +62003,7 @@
       </c>
       <c r="BC84" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD84" t="inlineStr">
@@ -61726,19 +62392,27 @@
       <c r="EI84" t="n">
         <v>3</v>
       </c>
-      <c r="EJ84" t="inlineStr">
+      <c r="EJ84" t="n">
+        <v>25.820946</v>
+      </c>
+      <c r="EK84" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK84" t="inlineStr">
+      <c r="EL84" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL84" t="inlineStr">
+      <c r="EM84" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN84" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -62001,7 +62675,7 @@
       </c>
       <c r="BC85" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD85" t="inlineStr">
@@ -62390,19 +63064,27 @@
       <c r="EI85" t="n">
         <v>6</v>
       </c>
-      <c r="EJ85" t="inlineStr">
+      <c r="EJ85" t="n">
+        <v>25.821615</v>
+      </c>
+      <c r="EK85" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK85" t="inlineStr">
+      <c r="EL85" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL85" t="inlineStr">
+      <c r="EM85" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN85" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -62665,7 +63347,7 @@
       </c>
       <c r="BC86" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD86" t="inlineStr">
@@ -63054,19 +63736,27 @@
       <c r="EI86" t="n">
         <v>12</v>
       </c>
-      <c r="EJ86" t="inlineStr">
+      <c r="EJ86" t="n">
+        <v>25.72977</v>
+      </c>
+      <c r="EK86" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK86" t="inlineStr">
+      <c r="EL86" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL86" t="inlineStr">
+      <c r="EM86" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN86" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -63329,7 +64019,7 @@
       </c>
       <c r="BC87" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD87" t="inlineStr">
@@ -63718,19 +64408,27 @@
       <c r="EI87" t="n">
         <v>3</v>
       </c>
-      <c r="EJ87" t="inlineStr">
+      <c r="EJ87" t="n">
+        <v>25.863901</v>
+      </c>
+      <c r="EK87" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK87" t="inlineStr">
+      <c r="EL87" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL87" t="inlineStr">
+      <c r="EM87" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN87" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -63993,7 +64691,7 @@
       </c>
       <c r="BC88" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD88" t="inlineStr">
@@ -64382,19 +65080,27 @@
       <c r="EI88" t="n">
         <v>6</v>
       </c>
-      <c r="EJ88" t="inlineStr">
+      <c r="EJ88" t="n">
+        <v>25.832155</v>
+      </c>
+      <c r="EK88" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK88" t="inlineStr">
+      <c r="EL88" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL88" t="inlineStr">
+      <c r="EM88" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN88" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -64657,7 +65363,7 @@
       </c>
       <c r="BC89" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD89" t="inlineStr">
@@ -65046,19 +65752,27 @@
       <c r="EI89" t="n">
         <v>12</v>
       </c>
-      <c r="EJ89" t="inlineStr">
+      <c r="EJ89" t="n">
+        <v>25.828503</v>
+      </c>
+      <c r="EK89" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK89" t="inlineStr">
+      <c r="EL89" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL89" t="inlineStr">
+      <c r="EM89" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN89" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -65321,7 +66035,7 @@
       </c>
       <c r="BC90" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD90" t="inlineStr">
@@ -65710,19 +66424,27 @@
       <c r="EI90" t="n">
         <v>3</v>
       </c>
-      <c r="EJ90" t="inlineStr">
+      <c r="EJ90" t="n">
+        <v>25.81408</v>
+      </c>
+      <c r="EK90" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK90" t="inlineStr">
+      <c r="EL90" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL90" t="inlineStr">
+      <c r="EM90" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN90" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -65985,7 +66707,7 @@
       </c>
       <c r="BC91" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD91" t="inlineStr">
@@ -66374,19 +67096,27 @@
       <c r="EI91" t="n">
         <v>6</v>
       </c>
-      <c r="EJ91" t="inlineStr">
+      <c r="EJ91" t="n">
+        <v>25.778494</v>
+      </c>
+      <c r="EK91" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK91" t="inlineStr">
+      <c r="EL91" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL91" t="inlineStr">
+      <c r="EM91" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN91" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -66649,7 +67379,7 @@
       </c>
       <c r="BC92" t="inlineStr">
         <is>
-          <t>2023-04-03T00:00:00Z</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="BD92" t="inlineStr">
@@ -67038,19 +67768,27 @@
       <c r="EI92" t="n">
         <v>12</v>
       </c>
-      <c r="EJ92" t="inlineStr">
+      <c r="EJ92" t="n">
+        <v>25.725433</v>
+      </c>
+      <c r="EK92" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK92" t="inlineStr">
+      <c r="EL92" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL92" t="inlineStr">
+      <c r="EM92" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN92" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -67313,7 +68051,7 @@
       </c>
       <c r="BC93" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD93" t="inlineStr">
@@ -67702,19 +68440,27 @@
       <c r="EI93" t="n">
         <v>3</v>
       </c>
-      <c r="EJ93" t="inlineStr">
+      <c r="EJ93" t="n">
+        <v>25.560852</v>
+      </c>
+      <c r="EK93" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK93" t="inlineStr">
+      <c r="EL93" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL93" t="inlineStr">
+      <c r="EM93" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN93" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -67977,7 +68723,7 @@
       </c>
       <c r="BC94" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD94" t="inlineStr">
@@ -68366,19 +69112,27 @@
       <c r="EI94" t="n">
         <v>6</v>
       </c>
-      <c r="EJ94" t="inlineStr">
+      <c r="EJ94" t="n">
+        <v>25.533325</v>
+      </c>
+      <c r="EK94" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK94" t="inlineStr">
+      <c r="EL94" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL94" t="inlineStr">
+      <c r="EM94" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN94" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -68641,7 +69395,7 @@
       </c>
       <c r="BC95" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00Z</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="BD95" t="inlineStr">
@@ -69030,19 +69784,27 @@
       <c r="EI95" t="n">
         <v>12</v>
       </c>
-      <c r="EJ95" t="inlineStr">
+      <c r="EJ95" t="n">
+        <v>25.525799</v>
+      </c>
+      <c r="EK95" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK95" t="inlineStr">
+      <c r="EL95" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL95" t="inlineStr">
+      <c r="EM95" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN95" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -69305,7 +70067,7 @@
       </c>
       <c r="BC96" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD96" t="inlineStr">
@@ -69694,19 +70456,27 @@
       <c r="EI96" t="n">
         <v>3</v>
       </c>
-      <c r="EJ96" t="inlineStr">
+      <c r="EJ96" t="n">
+        <v>25.724411</v>
+      </c>
+      <c r="EK96" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK96" t="inlineStr">
+      <c r="EL96" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL96" t="inlineStr">
+      <c r="EM96" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN96" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -69969,7 +70739,7 @@
       </c>
       <c r="BC97" t="inlineStr">
         <is>
-          <t>2023-04-13T00:00:00Z</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="BD97" t="inlineStr">
@@ -70358,19 +71128,27 @@
       <c r="EI97" t="n">
         <v>9</v>
       </c>
-      <c r="EJ97" t="inlineStr">
+      <c r="EJ97" t="n">
+        <v>25.724808</v>
+      </c>
+      <c r="EK97" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK97" t="inlineStr">
+      <c r="EL97" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL97" t="inlineStr">
+      <c r="EM97" t="inlineStr">
         <is>
           <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="EN97" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
         </is>
       </c>
     </row>
@@ -71083,6 +71861,16 @@
           <t>not applicable: control sample</t>
         </is>
       </c>
+      <c r="EM98" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EN98" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71789,6 +72577,16 @@
         </is>
       </c>
       <c r="EL99" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EM99" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EN99" t="inlineStr">
         <is>
           <t>not applicable: control sample</t>
         </is>

--- a/projects/EcoFoci/skq21_12S/data/skq21_12S_faire.xlsx
+++ b/projects/EcoFoci/skq21_12S/data/skq21_12S_faire.xlsx
@@ -5222,8 +5222,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
-        <v/>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
@@ -5916,8 +5918,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -6610,8 +6614,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -7304,8 +7310,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -7974,8 +7982,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -8644,8 +8654,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -9314,8 +9326,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -9984,8 +9998,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -10654,8 +10670,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -11324,8 +11342,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -11994,8 +12014,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -12664,8 +12686,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -13334,8 +13358,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -14004,8 +14030,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -14674,8 +14702,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -15344,8 +15374,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -16014,8 +16046,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -16684,8 +16718,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -17354,8 +17390,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -18024,8 +18062,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -18694,8 +18734,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -19364,8 +19406,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -20034,8 +20078,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -20704,8 +20750,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -21374,8 +21422,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -22044,8 +22094,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -22714,8 +22766,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -23384,8 +23438,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -24054,8 +24110,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -24724,8 +24782,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -25394,8 +25454,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -26064,8 +26126,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -26734,8 +26798,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H36" t="n">
-        <v/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -27404,8 +27470,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -28074,8 +28142,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -28744,8 +28814,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -29414,8 +29486,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -30084,8 +30158,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H41" t="n">
-        <v/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -30754,8 +30830,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -31424,8 +31502,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -32094,8 +32174,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H44" t="n">
-        <v/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -32774,8 +32856,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -33444,8 +33528,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H46" t="n">
-        <v/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -34114,8 +34200,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H47" t="n">
-        <v/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -34784,8 +34872,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -35454,8 +35544,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H49" t="n">
-        <v/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -36124,8 +36216,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -36794,8 +36888,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -37474,8 +37570,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H52" t="n">
-        <v/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -38154,8 +38252,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H53" t="n">
-        <v/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -38824,8 +38924,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H54" t="n">
-        <v/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -39494,8 +39596,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H55" t="n">
-        <v/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -40174,8 +40278,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H56" t="n">
-        <v/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -40854,8 +40960,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H57" t="n">
-        <v/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -41524,8 +41632,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H58" t="n">
-        <v/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -42204,8 +42314,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H59" t="n">
-        <v/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -42874,8 +42986,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H60" t="n">
-        <v/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -43544,8 +43658,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H61" t="n">
-        <v/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -44214,8 +44330,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H62" t="n">
-        <v/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -44884,8 +45002,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H63" t="n">
-        <v/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -45554,8 +45674,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H64" t="n">
-        <v/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -46234,8 +46356,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H65" t="n">
-        <v/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -46904,8 +47028,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H66" t="n">
-        <v/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -47574,8 +47700,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H67" t="n">
-        <v/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -48244,8 +48372,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H68" t="n">
-        <v/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -48914,8 +49044,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H69" t="n">
-        <v/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -49594,8 +49726,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H70" t="n">
-        <v/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -50274,8 +50408,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H71" t="n">
-        <v/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -50944,8 +51080,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H72" t="n">
-        <v/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -51624,8 +51762,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H73" t="n">
-        <v/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -52294,8 +52434,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H74" t="n">
-        <v/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -52974,8 +53116,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H75" t="n">
-        <v/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -53644,8 +53788,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H76" t="n">
-        <v/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -54324,8 +54470,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H77" t="n">
-        <v/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -54994,8 +55142,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H78" t="n">
-        <v/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -55674,8 +55824,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H79" t="n">
-        <v/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -56354,8 +56506,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H80" t="n">
-        <v/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -57024,8 +57178,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H81" t="n">
-        <v/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -57694,8 +57850,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H82" t="n">
-        <v/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -58374,8 +58532,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H83" t="n">
-        <v/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -59054,8 +59214,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H84" t="n">
-        <v/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -59724,8 +59886,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H85" t="n">
-        <v/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -60394,8 +60558,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H86" t="n">
-        <v/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -61064,8 +61230,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H87" t="n">
-        <v/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -61734,8 +61902,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H88" t="n">
-        <v/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -62404,8 +62574,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H89" t="n">
-        <v/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -63074,8 +63246,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H90" t="n">
-        <v/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -63744,8 +63918,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H91" t="n">
-        <v/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -64414,8 +64590,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H92" t="n">
-        <v/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -65084,8 +65262,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H93" t="n">
-        <v/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -65754,8 +65934,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H94" t="n">
-        <v/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -66424,8 +66606,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H95" t="n">
-        <v/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -67094,8 +67278,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H96" t="n">
-        <v/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -67764,8 +67950,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H97" t="n">
-        <v/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>END.NC.SKQ2021 | START.NC.SKQ2021</t>
+        </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
